--- a/jpcore-r4/feature/swg26-diaglosticreport対応/CodeSystem-jp-simpleobservationcategory-cs.xlsx
+++ b/jpcore-r4/feature/swg26-diaglosticreport対応/CodeSystem-jp-simpleobservationcategory-cs.xlsx
@@ -231,7 +231,7 @@
     <t>Procedure</t>
   </si>
   <si>
-    <t xml:space="preserve">他の手順によって生成された観察。 このカテゴリには、実験室および画像検査 (心臓カテーテル法、内視鏡検査、電気診断など) を除く、介入および非介入手順から生じる観察結果が含まれます。 通常、検査結果は臨床医によって生成され、検査中に行われたコンポーネントの観察に関するより詳細な情報を提供します。 例としては、消化器内科医が大腸内視鏡検査中に観察されたポリープのサイズを報告する場合があります。 </t>
+    <t>他の手順によって生成された観察。 このカテゴリには、実験室および画像検査 (心臓カテーテル法、内視鏡検査、電気診断など) を除く、介入および非介入手順から生じる観察結果が含まれます。 通常、検査結果は臨床医によって生成され、検査中に行われたコンポーネントの観察に関するより詳細な情報を提供します。 例としては、消化器内科医が大腸内視鏡検査中に観察されたポリープのサイズを報告する場合があります。</t>
   </si>
   <si>
     <t>survey</t>
@@ -267,7 +267,7 @@
     <t>Activity</t>
   </si>
   <si>
-    <t xml:space="preserve">体力と全体的な健康状態を向上または維持する身体活動を測定または記録する観察。 理学療法士などの施術者の直接の監督下にないこと。 (例: 水泳ラップ、歩数、睡眠データ) </t>
+    <t>体力と全体的な健康状態を向上または維持する身体活動を測定または記録する観察。 理学療法士などの施術者の直接の監督下にないこと。 (例: 水泳ラップ、歩数、睡眠データ)</t>
   </si>
 </sst>
 </file>
